--- a/output/ejecucion_2/gridsearch_results/base_17_19/base_17_19_results_gs_xgb_s.xlsx
+++ b/output/ejecucion_2/gridsearch_results/base_17_19/base_17_19_results_gs_xgb_s.xlsx
@@ -534,16 +534,16 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>7.483998823165893</v>
+        <v>14.39357209205627</v>
       </c>
       <c r="C2">
-        <v>0.09837922624135126</v>
+        <v>0.1515944053031851</v>
       </c>
       <c r="D2">
-        <v>0.06591324806213379</v>
+        <v>0.1141427516937256</v>
       </c>
       <c r="E2">
-        <v>0.01352166730350183</v>
+        <v>0.007376733534286954</v>
       </c>
       <c r="F2">
         <v>1</v>
@@ -587,16 +587,16 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>15.33742179870606</v>
+        <v>27.41611580848694</v>
       </c>
       <c r="C3">
-        <v>0.2285061409857983</v>
+        <v>0.3065610802985698</v>
       </c>
       <c r="D3">
-        <v>0.06762232780456542</v>
+        <v>0.1194289207458496</v>
       </c>
       <c r="E3">
-        <v>0.007434683373690495</v>
+        <v>0.006550174900045796</v>
       </c>
       <c r="F3">
         <v>1</v>
@@ -640,16 +640,16 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>31.36777539253235</v>
+        <v>54.75727148056031</v>
       </c>
       <c r="C4">
-        <v>0.6202254819765126</v>
+        <v>0.9969703284158692</v>
       </c>
       <c r="D4">
-        <v>0.08060994148254394</v>
+        <v>0.1409816741943359</v>
       </c>
       <c r="E4">
-        <v>0.003514456666069783</v>
+        <v>0.01495746845519833</v>
       </c>
       <c r="F4">
         <v>1</v>
@@ -693,16 +693,16 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>7.862759637832641</v>
+        <v>13.88761839866638</v>
       </c>
       <c r="C5">
-        <v>0.1275134560946357</v>
+        <v>0.2781903882431963</v>
       </c>
       <c r="D5">
-        <v>0.07258014678955078</v>
+        <v>0.1162937641143799</v>
       </c>
       <c r="E5">
-        <v>0.01196528318665045</v>
+        <v>0.004285020957305543</v>
       </c>
       <c r="F5">
         <v>1</v>
@@ -746,16 +746,16 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>15.76463966369629</v>
+        <v>27.62340931892395</v>
       </c>
       <c r="C6">
-        <v>0.3482118605992764</v>
+        <v>0.124009631653872</v>
       </c>
       <c r="D6">
-        <v>0.07983169555664063</v>
+        <v>0.1206007957458496</v>
       </c>
       <c r="E6">
-        <v>0.008811792630010517</v>
+        <v>0.002542257859449015</v>
       </c>
       <c r="F6">
         <v>1</v>
@@ -799,16 +799,16 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>31.24396333694458</v>
+        <v>54.79276456832886</v>
       </c>
       <c r="C7">
-        <v>0.5704912390620112</v>
+        <v>0.4892265262629502</v>
       </c>
       <c r="D7">
-        <v>0.07756948471069336</v>
+        <v>0.133392858505249</v>
       </c>
       <c r="E7">
-        <v>0.005282752171706614</v>
+        <v>0.002960329459498493</v>
       </c>
       <c r="F7">
         <v>1</v>
@@ -852,16 +852,16 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>8.184570217132569</v>
+        <v>14.16654224395752</v>
       </c>
       <c r="C8">
-        <v>0.2102183387422736</v>
+        <v>0.08950139010316673</v>
       </c>
       <c r="D8">
-        <v>0.07317299842834472</v>
+        <v>0.1090010643005371</v>
       </c>
       <c r="E8">
-        <v>0.01236249118548568</v>
+        <v>0.003166461811568503</v>
       </c>
       <c r="F8">
         <v>1</v>
@@ -905,16 +905,16 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>16.08013529777527</v>
+        <v>27.57801856994629</v>
       </c>
       <c r="C9">
-        <v>0.4105767876674896</v>
+        <v>0.4251422547102426</v>
       </c>
       <c r="D9">
-        <v>0.06815242767333984</v>
+        <v>0.1173953533172607</v>
       </c>
       <c r="E9">
-        <v>0.006497703170900427</v>
+        <v>0.005004997337516745</v>
       </c>
       <c r="F9">
         <v>1</v>
@@ -958,16 +958,16 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>32.16075353622436</v>
+        <v>55.22628269195557</v>
       </c>
       <c r="C10">
-        <v>0.776392863200615</v>
+        <v>0.3448490985508336</v>
       </c>
       <c r="D10">
-        <v>0.08216342926025391</v>
+        <v>0.1295610904693603</v>
       </c>
       <c r="E10">
-        <v>0.01182023988623873</v>
+        <v>0.007000092038892935</v>
       </c>
       <c r="F10">
         <v>1</v>
@@ -1011,16 +1011,16 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>13.07208247184753</v>
+        <v>22.47488203048706</v>
       </c>
       <c r="C11">
-        <v>0.3344114032075892</v>
+        <v>0.07542974589168064</v>
       </c>
       <c r="D11">
-        <v>0.06710567474365234</v>
+        <v>0.1101730823516846</v>
       </c>
       <c r="E11">
-        <v>0.004165361335726502</v>
+        <v>0.00574166348523038</v>
       </c>
       <c r="F11">
         <v>2</v>
@@ -1064,16 +1064,16 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>27.07025017738342</v>
+        <v>44.58987588882447</v>
       </c>
       <c r="C12">
-        <v>0.9378385358565026</v>
+        <v>0.5679604055046705</v>
       </c>
       <c r="D12">
-        <v>0.07893052101135253</v>
+        <v>0.1296037673950195</v>
       </c>
       <c r="E12">
-        <v>0.002914815731589967</v>
+        <v>0.00152572537633268</v>
       </c>
       <c r="F12">
         <v>2</v>
@@ -1117,16 +1117,16 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>53.92138867378235</v>
+        <v>88.41262454986573</v>
       </c>
       <c r="C13">
-        <v>1.292720588338428</v>
+        <v>0.6778278742120537</v>
       </c>
       <c r="D13">
-        <v>0.08919458389282227</v>
+        <v>0.1512444972991943</v>
       </c>
       <c r="E13">
-        <v>0.00671187548802548</v>
+        <v>0.005771824150349715</v>
       </c>
       <c r="F13">
         <v>2</v>
@@ -1170,16 +1170,16 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>13.47558431625366</v>
+        <v>22.44068555831909</v>
       </c>
       <c r="C14">
-        <v>0.3091159781520416</v>
+        <v>0.3154052119194171</v>
       </c>
       <c r="D14">
-        <v>0.06347575187683105</v>
+        <v>0.116513729095459</v>
       </c>
       <c r="E14">
-        <v>0.002700302903443134</v>
+        <v>0.003234416577557185</v>
       </c>
       <c r="F14">
         <v>2</v>
@@ -1223,16 +1223,16 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>26.94159893989563</v>
+        <v>44.53285918235779</v>
       </c>
       <c r="C15">
-        <v>0.6571011413268281</v>
+        <v>0.2543204531236137</v>
       </c>
       <c r="D15">
-        <v>0.08030934333801269</v>
+        <v>0.1300471782684326</v>
       </c>
       <c r="E15">
-        <v>0.001009657879075204</v>
+        <v>0.004396150962808137</v>
       </c>
       <c r="F15">
         <v>2</v>
@@ -1276,16 +1276,16 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>55.07260684967041</v>
+        <v>88.76354756355286</v>
       </c>
       <c r="C16">
-        <v>0.966084811926393</v>
+        <v>0.7341255931168345</v>
       </c>
       <c r="D16">
-        <v>0.1028365612030029</v>
+        <v>0.1529016494750977</v>
       </c>
       <c r="E16">
-        <v>0.01273435111603162</v>
+        <v>0.006810827778452071</v>
       </c>
       <c r="F16">
         <v>2</v>
@@ -1329,16 +1329,16 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>13.82700772285461</v>
+        <v>22.58560390472412</v>
       </c>
       <c r="C17">
-        <v>0.2917190556566487</v>
+        <v>0.3114884038251641</v>
       </c>
       <c r="D17">
-        <v>0.06966590881347656</v>
+        <v>0.1169402599334717</v>
       </c>
       <c r="E17">
-        <v>0.007378377749309269</v>
+        <v>0.0040704937074727</v>
       </c>
       <c r="F17">
         <v>2</v>
@@ -1382,16 +1382,16 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>27.67725372314453</v>
+        <v>44.247212266922</v>
       </c>
       <c r="C18">
-        <v>0.6619469933643826</v>
+        <v>0.7841737441643056</v>
       </c>
       <c r="D18">
-        <v>0.08088130950927734</v>
+        <v>0.1426224231719971</v>
       </c>
       <c r="E18">
-        <v>0.004557493404022607</v>
+        <v>0.02861717130106215</v>
       </c>
       <c r="F18">
         <v>2</v>
@@ -1435,16 +1435,16 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>45.22085609436035</v>
+        <v>88.36791524887084</v>
       </c>
       <c r="C19">
-        <v>1.083180004318956</v>
+        <v>7.953980907739928</v>
       </c>
       <c r="D19">
-        <v>0.05723590850830078</v>
+        <v>0.1395320892333984</v>
       </c>
       <c r="E19">
-        <v>0.01545771218715943</v>
+        <v>0.01435812053591434</v>
       </c>
       <c r="F19">
         <v>2</v>

--- a/output/ejecucion_2/gridsearch_results/base_17_19/base_17_19_results_gs_xgb_s.xlsx
+++ b/output/ejecucion_2/gridsearch_results/base_17_19/base_17_19_results_gs_xgb_s.xlsx
@@ -534,16 +534,16 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>14.39357209205627</v>
+        <v>7.483998823165893</v>
       </c>
       <c r="C2">
-        <v>0.1515944053031851</v>
+        <v>0.09837922624135126</v>
       </c>
       <c r="D2">
-        <v>0.1141427516937256</v>
+        <v>0.06591324806213379</v>
       </c>
       <c r="E2">
-        <v>0.007376733534286954</v>
+        <v>0.01352166730350183</v>
       </c>
       <c r="F2">
         <v>1</v>
@@ -587,16 +587,16 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>27.41611580848694</v>
+        <v>15.33742179870606</v>
       </c>
       <c r="C3">
-        <v>0.3065610802985698</v>
+        <v>0.2285061409857983</v>
       </c>
       <c r="D3">
-        <v>0.1194289207458496</v>
+        <v>0.06762232780456542</v>
       </c>
       <c r="E3">
-        <v>0.006550174900045796</v>
+        <v>0.007434683373690495</v>
       </c>
       <c r="F3">
         <v>1</v>
@@ -640,16 +640,16 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>54.75727148056031</v>
+        <v>31.36777539253235</v>
       </c>
       <c r="C4">
-        <v>0.9969703284158692</v>
+        <v>0.6202254819765126</v>
       </c>
       <c r="D4">
-        <v>0.1409816741943359</v>
+        <v>0.08060994148254394</v>
       </c>
       <c r="E4">
-        <v>0.01495746845519833</v>
+        <v>0.003514456666069783</v>
       </c>
       <c r="F4">
         <v>1</v>
@@ -693,16 +693,16 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>13.88761839866638</v>
+        <v>7.862759637832641</v>
       </c>
       <c r="C5">
-        <v>0.2781903882431963</v>
+        <v>0.1275134560946357</v>
       </c>
       <c r="D5">
-        <v>0.1162937641143799</v>
+        <v>0.07258014678955078</v>
       </c>
       <c r="E5">
-        <v>0.004285020957305543</v>
+        <v>0.01196528318665045</v>
       </c>
       <c r="F5">
         <v>1</v>
@@ -746,16 +746,16 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>27.62340931892395</v>
+        <v>15.76463966369629</v>
       </c>
       <c r="C6">
-        <v>0.124009631653872</v>
+        <v>0.3482118605992764</v>
       </c>
       <c r="D6">
-        <v>0.1206007957458496</v>
+        <v>0.07983169555664063</v>
       </c>
       <c r="E6">
-        <v>0.002542257859449015</v>
+        <v>0.008811792630010517</v>
       </c>
       <c r="F6">
         <v>1</v>
@@ -799,16 +799,16 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>54.79276456832886</v>
+        <v>31.24396333694458</v>
       </c>
       <c r="C7">
-        <v>0.4892265262629502</v>
+        <v>0.5704912390620112</v>
       </c>
       <c r="D7">
-        <v>0.133392858505249</v>
+        <v>0.07756948471069336</v>
       </c>
       <c r="E7">
-        <v>0.002960329459498493</v>
+        <v>0.005282752171706614</v>
       </c>
       <c r="F7">
         <v>1</v>
@@ -852,16 +852,16 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>14.16654224395752</v>
+        <v>8.184570217132569</v>
       </c>
       <c r="C8">
-        <v>0.08950139010316673</v>
+        <v>0.2102183387422736</v>
       </c>
       <c r="D8">
-        <v>0.1090010643005371</v>
+        <v>0.07317299842834472</v>
       </c>
       <c r="E8">
-        <v>0.003166461811568503</v>
+        <v>0.01236249118548568</v>
       </c>
       <c r="F8">
         <v>1</v>
@@ -905,16 +905,16 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>27.57801856994629</v>
+        <v>16.08013529777527</v>
       </c>
       <c r="C9">
-        <v>0.4251422547102426</v>
+        <v>0.4105767876674896</v>
       </c>
       <c r="D9">
-        <v>0.1173953533172607</v>
+        <v>0.06815242767333984</v>
       </c>
       <c r="E9">
-        <v>0.005004997337516745</v>
+        <v>0.006497703170900427</v>
       </c>
       <c r="F9">
         <v>1</v>
@@ -958,16 +958,16 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>55.22628269195557</v>
+        <v>32.16075353622436</v>
       </c>
       <c r="C10">
-        <v>0.3448490985508336</v>
+        <v>0.776392863200615</v>
       </c>
       <c r="D10">
-        <v>0.1295610904693603</v>
+        <v>0.08216342926025391</v>
       </c>
       <c r="E10">
-        <v>0.007000092038892935</v>
+        <v>0.01182023988623873</v>
       </c>
       <c r="F10">
         <v>1</v>
@@ -1011,16 +1011,16 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>22.47488203048706</v>
+        <v>13.07208247184753</v>
       </c>
       <c r="C11">
-        <v>0.07542974589168064</v>
+        <v>0.3344114032075892</v>
       </c>
       <c r="D11">
-        <v>0.1101730823516846</v>
+        <v>0.06710567474365234</v>
       </c>
       <c r="E11">
-        <v>0.00574166348523038</v>
+        <v>0.004165361335726502</v>
       </c>
       <c r="F11">
         <v>2</v>
@@ -1064,16 +1064,16 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>44.58987588882447</v>
+        <v>27.07025017738342</v>
       </c>
       <c r="C12">
-        <v>0.5679604055046705</v>
+        <v>0.9378385358565026</v>
       </c>
       <c r="D12">
-        <v>0.1296037673950195</v>
+        <v>0.07893052101135253</v>
       </c>
       <c r="E12">
-        <v>0.00152572537633268</v>
+        <v>0.002914815731589967</v>
       </c>
       <c r="F12">
         <v>2</v>
@@ -1117,16 +1117,16 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>88.41262454986573</v>
+        <v>53.92138867378235</v>
       </c>
       <c r="C13">
-        <v>0.6778278742120537</v>
+        <v>1.292720588338428</v>
       </c>
       <c r="D13">
-        <v>0.1512444972991943</v>
+        <v>0.08919458389282227</v>
       </c>
       <c r="E13">
-        <v>0.005771824150349715</v>
+        <v>0.00671187548802548</v>
       </c>
       <c r="F13">
         <v>2</v>
@@ -1170,16 +1170,16 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>22.44068555831909</v>
+        <v>13.47558431625366</v>
       </c>
       <c r="C14">
-        <v>0.3154052119194171</v>
+        <v>0.3091159781520416</v>
       </c>
       <c r="D14">
-        <v>0.116513729095459</v>
+        <v>0.06347575187683105</v>
       </c>
       <c r="E14">
-        <v>0.003234416577557185</v>
+        <v>0.002700302903443134</v>
       </c>
       <c r="F14">
         <v>2</v>
@@ -1223,16 +1223,16 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>44.53285918235779</v>
+        <v>26.94159893989563</v>
       </c>
       <c r="C15">
-        <v>0.2543204531236137</v>
+        <v>0.6571011413268281</v>
       </c>
       <c r="D15">
-        <v>0.1300471782684326</v>
+        <v>0.08030934333801269</v>
       </c>
       <c r="E15">
-        <v>0.004396150962808137</v>
+        <v>0.001009657879075204</v>
       </c>
       <c r="F15">
         <v>2</v>
@@ -1276,16 +1276,16 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>88.76354756355286</v>
+        <v>55.07260684967041</v>
       </c>
       <c r="C16">
-        <v>0.7341255931168345</v>
+        <v>0.966084811926393</v>
       </c>
       <c r="D16">
-        <v>0.1529016494750977</v>
+        <v>0.1028365612030029</v>
       </c>
       <c r="E16">
-        <v>0.006810827778452071</v>
+        <v>0.01273435111603162</v>
       </c>
       <c r="F16">
         <v>2</v>
@@ -1329,16 +1329,16 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>22.58560390472412</v>
+        <v>13.82700772285461</v>
       </c>
       <c r="C17">
-        <v>0.3114884038251641</v>
+        <v>0.2917190556566487</v>
       </c>
       <c r="D17">
-        <v>0.1169402599334717</v>
+        <v>0.06966590881347656</v>
       </c>
       <c r="E17">
-        <v>0.0040704937074727</v>
+        <v>0.007378377749309269</v>
       </c>
       <c r="F17">
         <v>2</v>
@@ -1382,16 +1382,16 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>44.247212266922</v>
+        <v>27.67725372314453</v>
       </c>
       <c r="C18">
-        <v>0.7841737441643056</v>
+        <v>0.6619469933643826</v>
       </c>
       <c r="D18">
-        <v>0.1426224231719971</v>
+        <v>0.08088130950927734</v>
       </c>
       <c r="E18">
-        <v>0.02861717130106215</v>
+        <v>0.004557493404022607</v>
       </c>
       <c r="F18">
         <v>2</v>
@@ -1435,16 +1435,16 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>88.36791524887084</v>
+        <v>45.22085609436035</v>
       </c>
       <c r="C19">
-        <v>7.953980907739928</v>
+        <v>1.083180004318956</v>
       </c>
       <c r="D19">
-        <v>0.1395320892333984</v>
+        <v>0.05723590850830078</v>
       </c>
       <c r="E19">
-        <v>0.01435812053591434</v>
+        <v>0.01545771218715943</v>
       </c>
       <c r="F19">
         <v>2</v>
